--- a/Question_Set2/Role-specific skills/Customer Service (Multimedia).xlsx
+++ b/Question_Set2/Role-specific skills/Customer Service (Multimedia).xlsx
@@ -16,23 +16,69 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "Read the following customer call interaction: You: Thank you for calling CoolPhonics. I’m Ashley. How may I help?Customer: Hi Ashley. I couldn't find your Bluetooth headset in any stores downtown. Your online store says it can be delivered in five business days, but I really need it by tomorrow. Can you help? This is urgent!You: Sorry for the inconvenience. May I know which model you are looking for?Customer: The Noise Canceling PhonicPro Bluetooth Headset. Which of the following responses should you give?", 'ques_type': 2, 'options': ['“Unfortunately, we are short on this product in all stores. Would you like to receive a message as soon as your local store receives more stock?”', '“Unfortunately, we are short on this product in all stores. However, some small local retailers may still have stock. Have you checked with them all?”', '“I understand your urgency. May I place you on a brief hold while I speak with my colleagues regarding this rush order?”', '“While our website says ‘within five business days,’ if you place the order immediately, it could be delivered sooner.”'], 'score': '“I understand your urgency. May I place you on a brief hold while I speak with my colleagues regarding this rush order?”'}, {'title': 'You are a customer service representative at a retail company with a replacement policy window of 30 days from the date of purchase. You are currently helping a customer who is claiming that the top they bought three weeks ago has unexpectedly shrunk in the wash. However, out of the customer’s view, you compared it to a brand new top of the same size and model and confirmed that it has not shrunk at all. Which action should you take?', 'ques_type': 2, 'options': ['Actively listen to the customer’s concerns, and offer the customer a replacement item of clothing.', 'Politely explain that your company policies state that you cannot replace the top.', 'Issue a full refund for the top and apologize for the inconvenience caused.', 'Show the customer that the top has not shrunk at all.'], 'score': 'Actively listen to the customer’s concerns, and offer the customer a replacement item of clothing.'}, {'title': 'Two days ago, you promised a customer that you would get back to them with a solution to their problem by today. Unfortunately, you still don’t have a solution.   Which action should you take?', 'ques_type': 2, 'options': ['Get back to the customer to thank them for their patience and offer them a discount on their next payment.', 'Get back to the customer to thank them for their patience and notify them that you are still working on finding a solution.', 'Delay getting back to the customer until you have a solution.', 'Get back to the customer to thank them for their patience, elaborate on the reason for the delay and request more time.'], 'score': 'Get back to the customer to thank them for their patience, elaborate on the reason for the delay and request more time.'}, {'title': 'Your company is launching a new SaaS product onto the market, and you are creating the services your team will provide. You are expecting to receive a large number of inquiries about the product and the pricing plans from prospective customers. Which of the following customer service channels should you add to handle these types of requests?', 'ques_type': 15, 'options': ['A comprehensive FAQ section on the website', 'Live chat support on the website', 'A dedicated phone line for customer inquiries', 'In-app messaging support', 'Social media customer support', 'Public community forum for users to discuss and find answers', 'Email support with a dedicated email address', 'A designated YouTube channel with tutorial videos'], 'score': ['Live chat support on the website', 'A dedicated phone line for customer inquiries', 'Social media customer support', 'Email support with a dedicated email address']}]</t>
+    <t>questions = [
+    {
+        "title": "Read the following customer call interaction: You: Thank you for calling CoolPhonics. I\u2019m Ashley. How may I help?Customer: Hi Ashley. I couldn't find your Bluetooth headset in any stores downtown. Your online store says it can be delivered in five business days, but I really need it by tomorrow. Can you help? This is urgent!You: Sorry for the inconvenience. May I know which model you are looking for?Customer: The Noise Canceling PhonicPro Bluetooth Headset. Which of the following responses should you give?",
+        "ques_type": 2,
+        "options": [
+            "\u201cUnfortunately, we are short on this product in all stores. Would you like to receive a message as soon as your local store receives more stock?\u201d",
+            "\u201cUnfortunately, we are short on this product in all stores. However, some small local retailers may still have stock. Have you checked with them all?\u201d",
+            "\u201cI understand your urgency. May I place you on a brief hold while I speak with my colleagues regarding this rush order?\u201d",
+            "\u201cWhile our website says \u2018within five business days,\u2019 if you place the order immediately, it could be delivered sooner.\u201d"
+        ],
+        "score": "\u201cI understand your urgency. May I place you on a brief hold while I speak with my colleagues regarding this rush order?\u201d"
+    },
+    {
+        "title": "You are a customer service representative at a retail company with a replacement policy window of 30 days from the date of purchase. You are currently helping a customer who is claiming that the top they bought three weeks ago has unexpectedly shrunk in the wash. However, out of the customer\u2019s view, you compared it to a brand new top of the same size and model and confirmed that it has not shrunk at all. Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Actively listen to the customer\u2019s concerns, and offer the customer a replacement item of clothing.",
+            "Politely explain that your company policies state that you cannot replace the top.",
+            "Issue a full refund for the top and apologize for the inconvenience caused.",
+            "Show the customer that the top has not shrunk at all."
+        ],
+        "score": "Actively listen to the customer\u2019s concerns, and offer the customer a replacement item of clothing."
+    },
+    {
+        "title": "Two days ago, you promised a customer that you would get back to them with a solution to their problem by today. Unfortunately, you still don\u2019t have a solution.   Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Get back to the customer to thank them for their patience and offer them a discount on their next payment.",
+            "Get back to the customer to thank them for their patience and notify them that you are still working on finding a solution.",
+            "Delay getting back to the customer until you have a solution.",
+            "Get back to the customer to thank them for their patience, elaborate on the reason for the delay and request more time."
+        ],
+        "score": "Get back to the customer to thank them for their patience, elaborate on the reason for the delay and request more time."
+    },
+    {
+        "title": "Your company is launching a new SaaS product onto the market, and you are creating the services your team will provide. You are expecting to receive a large number of inquiries about the product and the pricing plans from prospective customers. Which of the following customer service channels should you add to handle these types of requests?",
+        "ques_type": 15,
+        "options": [
+            "A comprehensive FAQ section on the website",
+            "Live chat support on the website",
+            "A dedicated phone line for customer inquiries",
+            "In-app messaging support",
+            "Social media customer support",
+            "Public community forum for users to discuss and find answers",
+            "Email support with a dedicated email address",
+            "A designated YouTube channel with tutorial videos"
+        ],
+        "score": [
+            "Live chat support on the website",
+            "A dedicated phone line for customer inquiries",
+            "Social media customer support",
+            "Email support with a dedicated email address"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +102,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +402,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
